--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Unity\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBCFC3-31F8-48D4-9456-867E409B18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5CCF0-EA51-40BE-87AE-F17A3EBA4C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -447,19 +447,19 @@
   <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
